--- a/PeerEvaluationTemplate_5Person.xlsx
+++ b/PeerEvaluationTemplate_5Person.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walterm\Dropbox\Classes\MAE151W22\GradesRosters\PeerEval\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walterm\Documents\GitProjects\PeerEvalTemplateCreator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB07C31-54AE-415E-99CF-CEECC287BF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A599A1-730D-4B73-8FA9-DCFAB407B354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="23295" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,67 +40,67 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Rating Descriptions (provide whole number ratings (5, 4, 3, 2, or 1) in columns for each each member including yourself)</t>
+    <t>5: Does higher quality work than expected, makes important contributions that improve team's work, helps teams who are having difficulty
+3: Complete fair share of work with acceptable quality, does promised work on time, helps others when it is easy or important
+1: Does not do a fair share of the team's work. Delivers sloppy or incomplete work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments (REQUIRED): For each person (including yourself), in the corresponding shaded box below, comment on how the teammate can improve on his/her worst rating </t>
+  </si>
+  <si>
+    <t>&lt;-- A1 Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;-- B2 Person </t>
+  </si>
+  <si>
+    <t>&lt;-- C3 Person</t>
+  </si>
+  <si>
+    <t>&lt;-- D4 Person</t>
+  </si>
+  <si>
+    <t>&lt;-- E5 Person</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>E5</t>
   </si>
   <si>
     <t>5: Demonstrates KSAs to do excellent work, acquires new KSA to help team, can perform any role on team if necessary
 4: Between 5 above and 3 below
 3: Demonstrates sufficient KSA to contribute to team, acquires KSAs to meet requirements, able to perform other tasks
 2: Between 3 above and 1 below
-1: Missing basic qualification, unable to develop KSAs to contribute to team, unable to peform any one elses duties</t>
-  </si>
-  <si>
-    <t>5: Does higher quality work than expected, makes important contributions that improve team's work, helps teams who are having difficulty
-3: Complete fair share of work with acceptable quality, does promised work on time, helps others when it is easy or important
-1: Does not do a fair share of the team's work. Delivers sloppy or incomplete work.</t>
+1: Missing basic qualification, unable to develop KSAs to contribute to team, unable to perform any one else's duties</t>
   </si>
   <si>
     <t>5: Is interested in teammates ideas and contributions, makes sure everyone is informed, is encouraging, enthusiastic and asks for feedback/suggestions
-3: Listens and respects teammate contributsions, communicates clearly, shares info, participates fully, reacts and responds to feedback/suggestions
+3: Listens and respects teammate contributions, communicates clearly, shares info, participates fully, reacts and responds to feedback/suggestions
 1: Interrupts, ignores, bosses, or makes fun, takes action without input, does not share, complains, makes excuses, does not interact, is defensive</t>
   </si>
   <si>
     <t>5: Monitors teams' progress, makes sure teammates are progressing, gives specific, timely, and constructive feedback
-3: Knows what everyone on the team should be doing and notices problems, alerts teammates and suggests solutions with sucess is threatened
+3: Knows what everyone on the team should be doing and notices problems, alerts teammates and suggests solutions with success is threatened
 1: Unaware if team is meeting goals, does not pay attention to teammates progress, avoids discussing team problems even when obvious</t>
   </si>
   <si>
     <t>5: Motivates team to do excellent work, cares about excellent work even without reward, believes in team's ability to do excellent work
-3: Encouarges good work to meet requirements, believes team can meet its responsiblities
+3: Encourages good work to meet requirements, believes team can meet its responsibilities
 1: Satisfied even if not all requirements are met,  avoids work, doubts team can meet requirements</t>
   </si>
   <si>
-    <t xml:space="preserve">Comments (REQUIRED): For each person (including yourself), in the corresponding shaded box below, comment on how the teammate can improve on his/her worst rating </t>
-  </si>
-  <si>
-    <t>&lt;-- A1 Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;-- B2 Person </t>
-  </si>
-  <si>
-    <t>&lt;-- C3 Person</t>
-  </si>
-  <si>
-    <t>&lt;-- D4 Person</t>
-  </si>
-  <si>
-    <t>&lt;-- E5 Person</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>E5</t>
+    <t>Rating Descriptions (provide whole number ratings (5, 4, 3, 2, or 1) in columns for each member including yourself)</t>
   </si>
 </sst>
 </file>
@@ -410,12 +410,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -438,13 +438,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -462,7 +461,7 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -474,7 +473,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -699,7 +698,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -710,32 +709,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="A1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="1"/>
       <c r="C3" s="12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -743,23 +742,23 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -774,20 +773,20 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -809,16 +808,16 @@
       <c r="Y7" s="6"/>
     </row>
     <row r="8" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -840,16 +839,16 @@
       <c r="Y8" s="6"/>
     </row>
     <row r="9" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -871,16 +870,16 @@
       <c r="Y9" s="6"/>
     </row>
     <row r="10" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
       <c r="F10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -902,16 +901,16 @@
       <c r="Y10" s="6"/>
     </row>
     <row r="11" spans="1:25" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -932,60 +931,60 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="27"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="27"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="27"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="5:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -997,14 +996,13 @@
     <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not btwn 5 and 1" error="Provide a whole number between 5 and 1" promptTitle="Rating" prompt="Provide one of the following: 5, 4, 3, 2, or 1" sqref="A7:E11" xr:uid="{C05023C9-D5C3-47D5-8E08-DA458E7A31A1}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
     <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Must Comment" error="You must provide comments on each person, including yourself." promptTitle="Comment" prompt="You must comment on each person, including yourself. Indicate how he/she can improve on their worst rating." sqref="A13:G13" xr:uid="{A07277A0-70D8-40FF-BD2B-FDEF55174351}"/>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comment" prompt="You must comment on each person, including yourself. Indicate how he/she can improve on their worst rating." sqref="E17:G17" xr:uid="{29EE24D3-8AD9-40BA-A3DA-95486EC1CA3C}"/>
-    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comment" prompt="You must comment on each person, including yourself. Indicate how he/she can improve on their worst rating." sqref="B14:G14 C15:G15 D16:G16" xr:uid="{D8C5C4FF-949E-41D8-B5EB-15934E4BE1AD}"/>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Comment" prompt="You must comment on each person, including yourself. Indicate how he/she can improve on their worst rating." sqref="E17:G17 B14:G14 C15:G15 D16:G16" xr:uid="{29EE24D3-8AD9-40BA-A3DA-95486EC1CA3C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
